--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -68,172 +68,127 @@
     <t>QMVAR</t>
   </si>
   <si>
-    <t>Gathering Req</t>
-  </si>
-  <si>
-    <t>01/10/2020</t>
-  </si>
-  <si>
-    <t>02/10/2020</t>
-  </si>
-  <si>
-    <t>03/10/2020</t>
-  </si>
-  <si>
-    <t>04/10/2020</t>
-  </si>
-  <si>
-    <t>05/10/2020</t>
-  </si>
-  <si>
-    <t>06/10/2020</t>
-  </si>
-  <si>
-    <t>07/10/2020</t>
-  </si>
-  <si>
-    <t>08/10/2020</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
-    <t>11/10/2020</t>
-  </si>
-  <si>
-    <t>12/10/2020</t>
-  </si>
-  <si>
-    <t>13/10/2020</t>
-  </si>
-  <si>
-    <t>14/10/2020</t>
-  </si>
-  <si>
-    <t>15/10/2020</t>
-  </si>
-  <si>
-    <t>16/10/2020</t>
-  </si>
-  <si>
-    <t>17/10/2020</t>
-  </si>
-  <si>
-    <t>18/10/2020</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>20/10/2020</t>
-  </si>
-  <si>
-    <t>21/10/2020</t>
-  </si>
-  <si>
-    <t>22/10/2020</t>
-  </si>
-  <si>
-    <t>23/10/2020</t>
-  </si>
-  <si>
-    <t>24/10/2020</t>
-  </si>
-  <si>
-    <t>25/10/2020</t>
-  </si>
-  <si>
-    <t>26/10/2020</t>
-  </si>
-  <si>
-    <t>27/10/2020</t>
-  </si>
-  <si>
-    <t>28/10/2020</t>
-  </si>
-  <si>
-    <t>29/10/2020</t>
-  </si>
-  <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
-    <t>31/10/2020</t>
-  </si>
-  <si>
-    <t>Pooja Holidays</t>
-  </si>
-  <si>
-    <t>Activity Report &amp; PL Tracking Sheet</t>
-  </si>
-  <si>
-    <t>InProgress</t>
-  </si>
-  <si>
-    <t>Analsyse-20%</t>
-  </si>
-  <si>
-    <t>Activity Report-sony</t>
-  </si>
-  <si>
-    <t>Activity Report-sony, Hayaai-Insert Rst Code columns and datas</t>
-  </si>
-  <si>
-    <t>Hayaii-completed,AR-Inprogress</t>
-  </si>
-  <si>
-    <t>Hayaai-100%,AR Analyse-10%</t>
-  </si>
-  <si>
-    <t>Analyse-100%</t>
-  </si>
-  <si>
-    <t>Activity Report-sony-creating tables and start design</t>
-  </si>
-  <si>
-    <t>Activity Report-sony- start design &amp; coding</t>
-  </si>
-  <si>
-    <t>Activity Report-sony-implementing coding</t>
-  </si>
-  <si>
-    <t>Activity Report-sony-implementing coding and checking results</t>
-  </si>
-  <si>
-    <t>Activity Report-sony-code verification</t>
-  </si>
-  <si>
-    <t>Activity Report-sony-testing and code results</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Gathering Req</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Analyse</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Design Added</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Tables Added</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Implemention code</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Verficaton code</t>
-  </si>
-  <si>
     <t>SID PL Tracking-Testing code and Results</t>
   </si>
   <si>
-    <t>Activity Report-sony-implementing coding-Hataai datas insertion-Query issue</t>
-  </si>
-  <si>
-    <t>Query issue-100%Implemention-50%</t>
+    <t>01/11/2020</t>
+  </si>
+  <si>
+    <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>08/11/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>14/11/2020</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>16/11/2020</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>20/11/2020</t>
+  </si>
+  <si>
+    <t>21/11/2020</t>
+  </si>
+  <si>
+    <t>22/11/2020</t>
+  </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>27/11/2020</t>
+  </si>
+  <si>
+    <t>28/11/2020</t>
+  </si>
+  <si>
+    <t>29/11/2020</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>NMVAR</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>SID PL Tracking-Testing code and error fixing</t>
+  </si>
+  <si>
+    <t>SID PL Tracking-Testing code and calculation testing</t>
+  </si>
+  <si>
+    <t>Analyse the code and error fixing</t>
+  </si>
+  <si>
+    <t>Soniya Japanese issue analyse</t>
+  </si>
+  <si>
+    <t>Soniya Japanese issue analyse and fixed</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -335,7 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,9 +402,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -918,7 +873,7 @@
     <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -953,17 +908,8 @@
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -976,15 +922,13 @@
       <c r="C3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>47</v>
       </c>
+      <c r="E3" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -993,10 +937,13 @@
       <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="29"/>
+      <c r="C4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -1005,10 +952,13 @@
       <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29"/>
+      <c r="C5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -1020,15 +970,11 @@
       <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="D6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -1040,13 +986,13 @@
       <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="D7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1057,18 +1003,11 @@
       <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -1078,17 +1017,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>47</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -1098,17 +1030,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -1118,9 +1046,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -1130,9 +1062,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -1142,17 +1078,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -1162,17 +1094,15 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>47</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -1182,17 +1112,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>47</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -1202,17 +1125,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>47</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -1222,17 +1138,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -1242,9 +1154,12 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="29"/>
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -1254,9 +1169,15 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -1266,14 +1187,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="28" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1283,16 +1206,14 @@
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>12</v>
+      <c r="C21" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="24">
@@ -1301,18 +1222,11 @@
       <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="24">
@@ -1321,18 +1235,12 @@
       <c r="B23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="24">
@@ -1341,18 +1249,14 @@
       <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="C24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
@@ -1362,18 +1266,14 @@
       <c r="B25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="C25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
@@ -1384,8 +1284,12 @@
         <v>38</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>11</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="24">
@@ -1395,8 +1299,12 @@
         <v>39</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="24">
@@ -1405,18 +1313,14 @@
       <c r="B28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="C28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="24">
@@ -1425,18 +1329,16 @@
       <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>64</v>
+      <c r="C29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E29" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="24">
@@ -1445,18 +1347,14 @@
       <c r="B30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="C30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="24">
@@ -1465,29 +1363,21 @@
       <c r="B31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0.8</v>
-      </c>
+      <c r="C31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="23"/>
       <c r="F31" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="23"/>
       <c r="F32" s="27"/>
